--- a/data/en/ar_reutilizadas.xlsx
+++ b/data/en/ar_reutilizadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F35AE-73CD-4E77-9778-C9B01C6A82EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E7691-CF67-411B-8185-42ABCBC10D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
+    <workbookView xWindow="1776" yWindow="840" windowWidth="19812" windowHeight="11520" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>Total</t>
   </si>
@@ -412,19 +412,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C094BF8C-7E84-4C15-AD2D-FEE22ED5903E}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2</f>
         <v>2003</v>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>+A2</f>
         <v>2003</v>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>+A5</f>
         <v>2004</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>+A5</f>
         <v>2004</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>+A8</f>
         <v>2005</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>+A8</f>
         <v>2005</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>+A11</f>
         <v>2006</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>+A11</f>
         <v>2006</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>+A14</f>
         <v>2007</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>+A14</f>
         <v>2007</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>+A17</f>
         <v>2008</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>+A17</f>
         <v>2008</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>+A20</f>
         <v>2009</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>+A20</f>
         <v>2009</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -691,7 +691,7 @@
         <v>1.3379730000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -702,7 +702,7 @@
         <v>1.3299970000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -713,7 +713,7 @@
         <v>7.9760000000000005E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1.2487790000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1.235754</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1.3025E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1.301518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1.287391</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -779,7 +779,7 @@
         <v>1.4127000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1.423762</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1.3990290000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -812,7 +812,7 @@
         <v>2.4733000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1.5489790000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1.5253410000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -845,7 +845,7 @@
         <v>2.3637999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1.5841400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -867,7 +867,7 @@
         <v>1.5512220000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -878,7 +878,7 @@
         <v>3.2918000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -889,7 +889,7 @@
         <v>1.5319100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1.5080359999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -911,7 +911,7 @@
         <v>2.3873999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -922,7 +922,7 @@
         <v>1.574411</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2017</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1.5553760000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2017</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1.9035E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1.732291</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1.7167570000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -977,7 +977,40 @@
         <v>1.5533999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1.372209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1.3545769999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1.763E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
